--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_201__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_201__Reeval_LHS_Modell_1.3.xlsx
@@ -5879,7 +5879,7 @@
                   <c:v>66.84845733642578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.03819274902344</c:v>
+                  <c:v>67.03820037841797</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>64.50119781494141</c:v>
@@ -5888,7 +5888,7 @@
                   <c:v>71.44301605224609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.64878845214844</c:v>
+                  <c:v>64.64879608154297</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>61.80844879150391</c:v>
@@ -5942,7 +5942,7 @@
                   <c:v>65.34297180175781</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63.66483306884766</c:v>
+                  <c:v>63.66482543945312</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>64.776123046875</c:v>
@@ -5963,7 +5963,7 @@
                   <c:v>64.56926727294922</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68.16545867919922</c:v>
+                  <c:v>68.16546630859375</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>66.80929565429688</c:v>
@@ -6023,7 +6023,7 @@
                   <c:v>66.18769073486328</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>71.9669189453125</c:v>
+                  <c:v>71.96692657470703</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>65.97271728515625</c:v>
@@ -6053,7 +6053,7 @@
                   <c:v>71.86514282226562</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>70.68448638916016</c:v>
+                  <c:v>70.68449401855469</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>64.81011199951172</c:v>
@@ -6074,10 +6074,10 @@
                   <c:v>57.01712036132812</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>64.77260589599609</c:v>
+                  <c:v>64.77261352539062</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>63.98849487304688</c:v>
+                  <c:v>63.98850250244141</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>61.88213348388672</c:v>
@@ -6092,7 +6092,7 @@
                   <c:v>69.78040313720703</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>68.01509094238281</c:v>
+                  <c:v>68.01508331298828</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>59.78738403320312</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>71.95362091064453</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>65.64077758789062</c:v>
+                  <c:v>65.64078521728516</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>68.74207305908203</c:v>
@@ -6122,10 +6122,10 @@
                   <c:v>66.71930694580078</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>67.11553955078125</c:v>
+                  <c:v>67.11553192138672</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>68.2276611328125</c:v>
+                  <c:v>68.22766876220703</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>55.52262878417969</c:v>
@@ -6923,7 +6923,7 @@
         <v>65.66840000000001</v>
       </c>
       <c r="F4">
-        <v>67.03819274902344</v>
+        <v>67.03820037841797</v>
       </c>
       <c r="G4">
         <v>121</v>
@@ -7019,7 +7019,7 @@
         <v>87.6867</v>
       </c>
       <c r="F7">
-        <v>64.64878845214844</v>
+        <v>64.64879608154297</v>
       </c>
       <c r="G7">
         <v>121</v>
@@ -7391,7 +7391,7 @@
         <v>54.0954</v>
       </c>
       <c r="F25">
-        <v>63.66483306884766</v>
+        <v>63.66482543945312</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>68.16545867919922</v>
+        <v>68.16546630859375</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>68.0436</v>
       </c>
       <c r="F52">
-        <v>71.9669189453125</v>
+        <v>71.96692657470703</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>46.4093</v>
       </c>
       <c r="F62">
-        <v>70.68448638916016</v>
+        <v>70.68449401855469</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>69.7713</v>
       </c>
       <c r="F69">
-        <v>64.77260589599609</v>
+        <v>64.77261352539062</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>51.1284</v>
       </c>
       <c r="F70">
-        <v>63.98849487304688</v>
+        <v>63.98850250244141</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>72.8365</v>
       </c>
       <c r="F75">
-        <v>68.01509094238281</v>
+        <v>68.01508331298828</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>87.142</v>
       </c>
       <c r="F81">
-        <v>65.64077758789062</v>
+        <v>65.64078521728516</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>43.913</v>
       </c>
       <c r="F85">
-        <v>67.11553955078125</v>
+        <v>67.11553192138672</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>68.0429</v>
       </c>
       <c r="F86">
-        <v>68.2276611328125</v>
+        <v>68.22766876220703</v>
       </c>
     </row>
     <row r="87" spans="1:6">
